--- a/new/combined_output.xlsx
+++ b/new/combined_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOT\FinanceApp\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2E74D2-0A50-4915-A78F-83BB7A2D56DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23175676-825B-450E-A789-BE84AF07D3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Scheme_Name</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>BSE 500 TRI</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Flexi Cap Fund</t>
+  </si>
+  <si>
+    <t>Nifty 500 TRI</t>
   </si>
 </sst>
 </file>
@@ -403,19 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -452,6 +458,23 @@
         <v>28.32292</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>14.552806</v>
+      </c>
+      <c r="D3">
+        <v>29.469100000000001</v>
+      </c>
+      <c r="E3">
+        <v>23.181426999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
